--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,7 +43,7 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>garbage</t>
+    <t>ripped</t>
   </si>
   <si>
     <t>crap</t>
@@ -52,267 +52,279 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointment</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>loose</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>however</t>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>water</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>pool</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>probably</t>
   </si>
   <si>
-    <t>tiny</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>wood</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>short</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>seem</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>pay</t>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>seems</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>stick</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>actually</t>
-  </si>
-  <si>
-    <t>color</t>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>could</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>1</t>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>need</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>enough</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>enough</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>think</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>two</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
@@ -325,10 +337,10 @@
     <t>toy</t>
   </si>
   <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>negative</t>
@@ -340,15 +352,15 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>enjoyable</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -367,43 +379,43 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>learn</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
-    <t>playing</t>
+    <t>easy</t>
   </si>
   <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>year</t>
   </si>
   <si>
     <t>positive</t>
@@ -764,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q99"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -772,10 +784,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -854,16 +866,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -875,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -883,13 +895,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -901,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -925,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -933,13 +945,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8571428571428571</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -951,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K5">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -983,13 +995,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8409090909090909</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1001,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K6">
-        <v>0.7407407407407407</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1025,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1033,13 +1045,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7931034482758621</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1051,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="L7">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1075,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1083,13 +1095,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7580645161290323</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C8">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1101,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K8">
-        <v>0.6037735849056604</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1125,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1133,13 +1145,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7464788732394366</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1151,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K9">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1175,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1183,13 +1195,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7142857142857143</v>
+        <v>0.72</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1201,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K10">
-        <v>0.4927536231884058</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1225,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1233,13 +1245,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7135922330097088</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C11">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1251,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K11">
-        <v>0.3729508196721312</v>
+        <v>0.3598360655737705</v>
       </c>
       <c r="L11">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="M11">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1275,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>765</v>
+        <v>781</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1283,13 +1295,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7037037037037037</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1301,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K12">
-        <v>0.351506456241033</v>
+        <v>0.3443328550932568</v>
       </c>
       <c r="L12">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M12">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1325,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1333,13 +1345,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6956521739130435</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1351,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K13">
-        <v>0.2717842323651452</v>
+        <v>0.2966804979253112</v>
       </c>
       <c r="L13">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M13">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1375,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1383,13 +1395,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6891891891891891</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C14">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1401,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K14">
-        <v>0.2469879518072289</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1425,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>125</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1433,13 +1445,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6875</v>
+        <v>0.6844660194174758</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1451,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K15">
-        <v>0.2333333333333333</v>
+        <v>0.2324159021406728</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1475,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>92</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1483,13 +1495,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6666666666666666</v>
+        <v>0.6824324324324325</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1501,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K16">
-        <v>0.2171253822629969</v>
+        <v>0.2228915662650602</v>
       </c>
       <c r="L16">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1525,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1533,13 +1545,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6578947368421053</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1551,19 +1563,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K17">
-        <v>0.201058201058201</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1575,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1583,13 +1595,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.64</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1601,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K18">
-        <v>0.1118881118881119</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1625,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1633,13 +1645,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6386554621848739</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C19">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1651,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K19">
-        <v>0.1060473269062226</v>
+        <v>0.1344086021505376</v>
       </c>
       <c r="L19">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1675,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1020</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1683,13 +1695,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6363636363636364</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1701,19 +1713,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K20">
-        <v>0.1004016064257028</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1725,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1733,37 +1745,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5806451612903226</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C21">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>18</v>
       </c>
-      <c r="D21">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>13</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K21">
-        <v>0.09677419354838709</v>
+        <v>0.1171875</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1775,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>168</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1783,13 +1795,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5714285714285714</v>
+        <v>0.5625</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1801,31 +1813,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K22">
-        <v>0.05865921787709497</v>
+        <v>0.1035087719298246</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="N22">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>337</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1833,13 +1845,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5714285714285714</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1851,31 +1863,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K23">
-        <v>0.04876462938881664</v>
+        <v>0.05571030640668524</v>
       </c>
       <c r="L23">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="N23">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1463</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1883,13 +1895,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5526315789473685</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1901,19 +1913,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K24">
-        <v>0.04629629629629629</v>
+        <v>0.05386112913692408</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1925,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>309</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1933,49 +1945,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5142857142857142</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>18</v>
       </c>
-      <c r="D25">
+      <c r="J25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25">
+        <v>0.0481283422459893</v>
+      </c>
+      <c r="L25">
         <v>18</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>17</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K25">
-        <v>0.03337783711615487</v>
-      </c>
-      <c r="L25">
-        <v>25</v>
-      </c>
       <c r="M25">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N25">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>724</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1983,13 +1995,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5111111111111111</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2001,31 +2013,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K26">
-        <v>0.03238866396761134</v>
+        <v>0.03204272363150868</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N26">
-        <v>0.73</v>
+        <v>0.89</v>
       </c>
       <c r="O26">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>478</v>
+        <v>725</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2033,13 +2045,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2051,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>27</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2059,13 +2071,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4939759036144578</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C28">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2077,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2085,13 +2097,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4840579710144928</v>
+        <v>0.5</v>
       </c>
       <c r="C29">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="D29">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2103,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>178</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2111,13 +2123,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4803149606299212</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="C30">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D30">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2129,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2192,10 +2204,10 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2207,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2215,13 +2227,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4421052631578947</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2233,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2241,13 +2253,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4102564102564102</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2259,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2267,13 +2279,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4074074074074074</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2285,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2293,13 +2305,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.40625</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C37">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2311,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2319,13 +2331,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2337,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2345,13 +2357,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3968253968253968</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2363,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2371,13 +2383,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3953488372093023</v>
+        <v>0.3828125</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2389,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2397,13 +2409,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3932584269662922</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="C41">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2415,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2423,13 +2435,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3818181818181818</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2441,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2449,13 +2461,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3809523809523809</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2467,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2475,13 +2487,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.360655737704918</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2493,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2501,7 +2513,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3459715639810427</v>
+        <v>0.3613861386138614</v>
       </c>
       <c r="C45">
         <v>73</v>
@@ -2519,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2527,13 +2539,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3448275862068966</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2545,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2553,13 +2565,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3432835820895522</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2571,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2579,13 +2591,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3392857142857143</v>
+        <v>0.3270142180094787</v>
       </c>
       <c r="C48">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="D48">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2597,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>37</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2605,13 +2617,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3267326732673267</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C49">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D49">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2623,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>136</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2631,13 +2643,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3265306122448979</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C50">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2649,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2657,13 +2669,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3265306122448979</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C51">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D51">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2675,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2683,13 +2695,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3125</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D52">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2701,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2709,13 +2721,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2905982905982906</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="C53">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D53">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2727,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>83</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2735,13 +2747,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2753623188405797</v>
+        <v>0.28</v>
       </c>
       <c r="C54">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D54">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2753,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2761,13 +2773,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2702702702702703</v>
+        <v>0.2567567567567567</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2779,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2787,7 +2799,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2678571428571428</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="C56">
         <v>15</v>
@@ -2805,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2813,13 +2825,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2577319587628866</v>
+        <v>0.2436708860759494</v>
       </c>
       <c r="C57">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D57">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2831,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>144</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2839,13 +2851,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.25</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2857,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2865,13 +2877,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.24</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C59">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D59">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2883,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2891,25 +2903,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.224368499257058</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C60">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="D60">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="E60">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>522</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2917,13 +2929,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2215189873417721</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C61">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2935,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>246</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2943,13 +2955,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2197802197802198</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2961,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2969,13 +2981,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2173913043478261</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2987,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2998,10 +3010,10 @@
         <v>0.2173913043478261</v>
       </c>
       <c r="C64">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D64">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3013,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>216</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3021,13 +3033,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2088607594936709</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C65">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D65">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3039,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>250</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3047,13 +3059,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2038216560509554</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="C66">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D66">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3065,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>125</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3073,13 +3085,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2</v>
+        <v>0.2102803738317757</v>
       </c>
       <c r="C67">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D67">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3091,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3099,13 +3111,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1949152542372881</v>
+        <v>0.2101449275362319</v>
       </c>
       <c r="C68">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D68">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3117,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>95</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3125,13 +3137,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1928571428571429</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="C69">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D69">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3143,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3151,25 +3163,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1850220264317181</v>
+        <v>0.2005943536404161</v>
       </c>
       <c r="C70">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="D70">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>370</v>
+        <v>538</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3177,13 +3189,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1828571428571429</v>
+        <v>0.1910828025477707</v>
       </c>
       <c r="C71">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D71">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3195,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3203,13 +3215,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1822429906542056</v>
+        <v>0.19</v>
       </c>
       <c r="C72">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D72">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3221,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3255,25 +3267,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1682242990654206</v>
+        <v>0.1614583333333333</v>
       </c>
       <c r="C74">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D74">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E74">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>89</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3281,13 +3293,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1649484536082474</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="C75">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D75">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3299,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3307,13 +3319,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1640625</v>
+        <v>0.15625</v>
       </c>
       <c r="C76">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3325,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3333,13 +3345,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1498559077809798</v>
+        <v>0.1556195965417868</v>
       </c>
       <c r="C77">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D77">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E77">
         <v>0.02</v>
@@ -3351,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3359,13 +3371,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1461538461538462</v>
+        <v>0.1485714285714286</v>
       </c>
       <c r="C78">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D78">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3377,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>111</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3385,25 +3397,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1223404255319149</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C79">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D79">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E79">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>165</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3411,13 +3423,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1202185792349727</v>
+        <v>0.145374449339207</v>
       </c>
       <c r="C80">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D80">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3429,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>161</v>
+        <v>388</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3437,13 +3449,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1167883211678832</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="C81">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D81">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3455,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>121</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3463,13 +3475,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1145833333333333</v>
+        <v>0.1361256544502618</v>
       </c>
       <c r="C82">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D82">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3481,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3489,25 +3501,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1090225563909774</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="C83">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D83">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E83">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>237</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3515,13 +3527,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1088709677419355</v>
+        <v>0.1233766233766234</v>
       </c>
       <c r="C84">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D84">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3533,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>221</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3541,13 +3553,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1047120418848168</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="C85">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D85">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3559,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>171</v>
+        <v>320</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3567,13 +3579,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.09859154929577464</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="C86">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D86">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3585,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>320</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3593,7 +3605,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.09740259740259741</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="C87">
         <v>15</v>
@@ -3611,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3619,25 +3631,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.09615384615384616</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="C88">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D88">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E88">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F88">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>329</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3645,25 +3657,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09534883720930233</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="C89">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D89">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E89">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>389</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3671,13 +3683,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0949367088607595</v>
+        <v>0.09937888198757763</v>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D90">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3689,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3697,13 +3709,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08896210873146623</v>
+        <v>0.09598214285714286</v>
       </c>
       <c r="C91">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D91">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E91">
         <v>0.02</v>
@@ -3715,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>553</v>
+        <v>405</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3723,13 +3735,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08214285714285714</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="C92">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D92">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3741,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>257</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3749,25 +3761,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0738255033557047</v>
+        <v>0.08745874587458746</v>
       </c>
       <c r="C93">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D93">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E93">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F93">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>414</v>
+        <v>553</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3775,25 +3787,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.06962025316455696</v>
+        <v>0.08192090395480225</v>
       </c>
       <c r="C94">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D94">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E94">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F94">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>294</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3801,25 +3813,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05647058823529412</v>
+        <v>0.07943925233644859</v>
       </c>
       <c r="C95">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D95">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E95">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F95">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3827,25 +3839,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.04955527318932656</v>
+        <v>0.07731958762886598</v>
       </c>
       <c r="C96">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D96">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E96">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="F96">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>748</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3853,25 +3865,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.04281345565749235</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="C97">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D97">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E97">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F97">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>626</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3879,25 +3891,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.04273504273504274</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="C98">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D98">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>336</v>
+        <v>296</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3905,25 +3917,129 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.03632478632478633</v>
+        <v>0.06074766355140187</v>
       </c>
       <c r="C99">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D99">
+        <v>27</v>
+      </c>
+      <c r="E99">
+        <v>0.04</v>
+      </c>
+      <c r="F99">
+        <v>0.96</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>0.04441624365482234</v>
+      </c>
+      <c r="C100">
+        <v>35</v>
+      </c>
+      <c r="D100">
+        <v>41</v>
+      </c>
+      <c r="E100">
+        <v>0.15</v>
+      </c>
+      <c r="F100">
+        <v>0.85</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>0.04134762633996937</v>
+      </c>
+      <c r="C101">
+        <v>27</v>
+      </c>
+      <c r="D101">
+        <v>29</v>
+      </c>
+      <c r="E101">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F101">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>0.03378378378378379</v>
+      </c>
+      <c r="C102">
+        <v>15</v>
+      </c>
+      <c r="D102">
         <v>18</v>
       </c>
-      <c r="E99">
-        <v>0.06</v>
-      </c>
-      <c r="F99">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>451</v>
+      <c r="E102">
+        <v>0.17</v>
+      </c>
+      <c r="F102">
+        <v>0.83</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="C103">
+        <v>16</v>
+      </c>
+      <c r="D103">
+        <v>16</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
